--- a/example/data.xlsx
+++ b/example/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,216 +429,286 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>12:56:03.613840</t>
+          <t>IPC_SND_START</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>IPC_REV_START</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>MIC_INPUT_START</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>CONNECT_REQ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>CONNECT_RES</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>TID</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>SERVER_SEND_START</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>DICTATION_START</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>EOS</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>SERVER_SEND_END</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>DICTATION_PARTIAL</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>MIC_INPUT_END</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>DICTATION_FINAL</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>VR_RESULT</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>IPC_SND_RESULT</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>IPC_REV_RESULT</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>DISPLAY</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IPC_SND_START</t>
+          <t>12:56:03.613840</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>12:56:03.942489</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12:56:03.942489</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12:56:04.127317</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12:56:04.130308</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12:56:05.267371</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>KPcRe2J8T_ijhzYOMGopYA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12:56:05.267371</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>12:56:05.542323</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>12:56:05.926602</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>12:56:07.115838</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>12:56:07.119827</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>12:56:07.121821</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>12:56:07.128803</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>12:56:07.442507</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>12:56:08.158385</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>12:56:08.166485</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>12:56:08.166485</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>12:56:08.273267</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IPC_REV_START</t>
+          <t>22:56:03.613840</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12:56:03.942489</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MIC_INPUT_START</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>12:56:04.127317</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CONNECT_REQ</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>12:56:04.130308</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CONNECT_RES</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>12:56:05.267371</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>KPcRe2J8T_ijhzYOMGopYA</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SERVER_SEND_START</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>12:56:05.267371</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>12:56:05.542323</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>DICTATION_START</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>12:56:05.926602</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>EOS</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>12:56:07.115838</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SERVER_SEND_END</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>12:56:07.119827</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>DICTATION_PARTIAL</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>12:56:07.121821</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MIC_INPUT_END</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>12:56:07.128803</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>DICTATION_FINAL</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>12:56:07.442507</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>VR_RESULT</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>12:56:08.158385</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>IPC_SND_RESULT</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>12:56:08.166485</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>IPC_REV_RESULT</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>12:56:08.166485</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>DISPLAY</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>12:56:08.273267</t>
+          <t>22:56:03.942489</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>22:56:03.942489</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22:56:04.127317</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22:56:04.130308</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>22:56:05.267371</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>GGGcRe2J8T_ijhzYOMGopYA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22:56:05.267371</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>22:56:05.542323</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>22:56:05.926602</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>22:56:07.115838</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>22:56:07.119827</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>22:56:07.121821</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>22:56:07.128803</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>22:56:07.442507</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>22:56:08.158385</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>22:56:08.166485</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>22:56:08.166485</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>22:56:08.273267</t>
         </is>
       </c>
     </row>
